--- a/data/ConsolidadoRatings.xlsx
+++ b/data/ConsolidadoRatings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jazmsure/Documents/PRISMA/prisma_pls/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4E689-2F05-D849-ABE7-514E96479DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B900B548-A0D0-D441-A58B-7FD10E8E16E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CTRL!$A$1:$C$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EQF!$A$1:$C$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TAB!$A$1:$C$88</definedName>
-    <definedName name="ExternalData_1" localSheetId="0">ALL!$A$2:$C$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">ALL!#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="1">EQF!$A$2:$C$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -38,18 +38,11 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{94FE5FF6-CD46-7544-9379-1C84004F57FE}" name="cortical_contour_rate_freesurfer_orig.mgz_ratings.all1" type="6" refreshedVersion="2" background="1" saveData="1">
-    <textPr sourceFile="/Users/neurofuncional/Documents/AdminServer/DockerPrisma/outputs_prisma_MR1/EQF/G1/visualqc/ratings/cortical_contour_rate_freesurfer_orig.mgz_ratings.all.csv" comma="1">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="370">
   <si>
     <t>Codigo</t>
   </si>
@@ -778,183 +771,6 @@
   </si>
   <si>
     <t>CTRL031-MR3</t>
-  </si>
-  <si>
-    <t>EQFP001</t>
-  </si>
-  <si>
-    <t>EQFP003</t>
-  </si>
-  <si>
-    <t>EQFP004</t>
-  </si>
-  <si>
-    <t>EQFP005</t>
-  </si>
-  <si>
-    <t>EQFP006</t>
-  </si>
-  <si>
-    <t>EQFP007</t>
-  </si>
-  <si>
-    <t>EQFP008</t>
-  </si>
-  <si>
-    <t>EQFP009</t>
-  </si>
-  <si>
-    <t>EQFP010</t>
-  </si>
-  <si>
-    <t>EQFP011</t>
-  </si>
-  <si>
-    <t>EQFP012</t>
-  </si>
-  <si>
-    <t>EQFP013</t>
-  </si>
-  <si>
-    <t>EQFP014</t>
-  </si>
-  <si>
-    <t>EQFP015</t>
-  </si>
-  <si>
-    <t>EQFP016</t>
-  </si>
-  <si>
-    <t>EQFP017</t>
-  </si>
-  <si>
-    <t>EQFP018</t>
-  </si>
-  <si>
-    <t>EQFP019</t>
-  </si>
-  <si>
-    <t>EQFP020</t>
-  </si>
-  <si>
-    <t>EQFP021</t>
-  </si>
-  <si>
-    <t>EQFP022</t>
-  </si>
-  <si>
-    <t>EQFP023</t>
-  </si>
-  <si>
-    <t>EQFP024</t>
-  </si>
-  <si>
-    <t>EQFP025</t>
-  </si>
-  <si>
-    <t>EQFP026</t>
-  </si>
-  <si>
-    <t>EQFP027</t>
-  </si>
-  <si>
-    <t>EQFP028</t>
-  </si>
-  <si>
-    <t>EQFP029</t>
-  </si>
-  <si>
-    <t>EQFP030</t>
-  </si>
-  <si>
-    <t>EQFP031</t>
-  </si>
-  <si>
-    <t>EQFP033</t>
-  </si>
-  <si>
-    <t>EQFP034</t>
-  </si>
-  <si>
-    <t>EQFP035</t>
-  </si>
-  <si>
-    <t>EQFP036</t>
-  </si>
-  <si>
-    <t>EQFP037</t>
-  </si>
-  <si>
-    <t>EQFP038</t>
-  </si>
-  <si>
-    <t>EQFP039</t>
-  </si>
-  <si>
-    <t>EQFP040</t>
-  </si>
-  <si>
-    <t>EQFP041</t>
-  </si>
-  <si>
-    <t>EQFP042</t>
-  </si>
-  <si>
-    <t>EQFP044</t>
-  </si>
-  <si>
-    <t>EQFP045</t>
-  </si>
-  <si>
-    <t>EQFP047</t>
-  </si>
-  <si>
-    <t>EQFP048</t>
-  </si>
-  <si>
-    <t>EQFP049</t>
-  </si>
-  <si>
-    <t>EQFP050</t>
-  </si>
-  <si>
-    <t>EQFP051</t>
-  </si>
-  <si>
-    <t>EQFP052</t>
-  </si>
-  <si>
-    <t>EQFP053</t>
-  </si>
-  <si>
-    <t>EQFP054</t>
-  </si>
-  <si>
-    <t>EQFP055</t>
-  </si>
-  <si>
-    <t>EQFP056</t>
-  </si>
-  <si>
-    <t>EQFP057</t>
-  </si>
-  <si>
-    <t>EQFP058</t>
-  </si>
-  <si>
-    <t>EQFP059</t>
-  </si>
-  <si>
-    <t>EQFP060</t>
-  </si>
-  <si>
-    <t>EQFP061</t>
-  </si>
-  <si>
-    <t>EQFP062</t>
-  </si>
-  <si>
-    <t>EQFP063</t>
   </si>
   <si>
     <t>TABP001</t>
@@ -1406,10 +1222,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{AFEA5803-F982-104D-9CC7-9B9948CB4419}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1671,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E707BC-7154-1449-8C37-6D39E69926D2}">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1720,10 +1532,10 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1731,10 +1543,10 @@
         <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1745,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1753,10 +1565,10 @@
         <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1764,10 +1576,10 @@
         <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1775,10 +1587,10 @@
         <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1786,10 +1598,10 @@
         <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1800,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1808,10 +1620,10 @@
         <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1819,10 +1631,10 @@
         <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1830,10 +1642,10 @@
         <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1852,10 +1664,10 @@
         <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1866,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,10 +1686,10 @@
         <v>259</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1885,10 +1697,10 @@
         <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1899,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,10 +1719,10 @@
         <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1921,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1932,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1943,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1951,10 +1763,10 @@
         <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1965,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1973,10 +1785,10 @@
         <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1984,10 +1796,10 @@
         <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1998,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,10 +1818,10 @@
         <v>271</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2017,10 +1829,10 @@
         <v>272</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2028,10 +1840,10 @@
         <v>273</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,10 +1851,10 @@
         <v>274</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,10 +1873,10 @@
         <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2072,10 +1884,10 @@
         <v>277</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,10 +1895,10 @@
         <v>278</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,10 +1906,10 @@
         <v>279</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,10 +1917,10 @@
         <v>280</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2127,10 +1939,10 @@
         <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,10 +1950,10 @@
         <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2149,10 +1961,10 @@
         <v>284</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,10 +1983,10 @@
         <v>286</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,10 +1994,10 @@
         <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,10 +2005,10 @@
         <v>288</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,10 +2016,10 @@
         <v>289</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,10 +2027,10 @@
         <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,10 +2038,10 @@
         <v>291</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2237,10 +2049,10 @@
         <v>292</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,10 +2060,10 @@
         <v>293</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,10 +2071,10 @@
         <v>294</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,10 +2082,10 @@
         <v>295</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2281,10 +2093,10 @@
         <v>296</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2295,7 +2107,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2306,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2314,10 +2126,10 @@
         <v>299</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2325,10 +2137,10 @@
         <v>300</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,10 +2159,10 @@
         <v>302</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,10 +2181,10 @@
         <v>304</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2391,10 +2203,10 @@
         <v>306</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2405,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2413,10 +2225,10 @@
         <v>308</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2424,10 +2236,10 @@
         <v>309</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,10 +2247,10 @@
         <v>310</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2449,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2457,10 +2269,10 @@
         <v>312</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,10 +2280,10 @@
         <v>313</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2479,10 +2291,10 @@
         <v>314</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2490,10 +2302,10 @@
         <v>315</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,10 +2324,10 @@
         <v>317</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,10 +2335,10 @@
         <v>318</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,10 +2346,10 @@
         <v>319</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2545,10 +2357,10 @@
         <v>320</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2556,10 +2368,10 @@
         <v>321</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2570,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2589,10 +2401,10 @@
         <v>324</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,10 +2412,10 @@
         <v>325</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2611,10 +2423,10 @@
         <v>326</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2622,10 +2434,10 @@
         <v>327</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2633,10 +2445,10 @@
         <v>328</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2647,18 +2459,15 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>330</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2666,10 +2475,10 @@
         <v>331</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2680,7 +2489,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2699,10 +2508,10 @@
         <v>334</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2721,10 +2530,10 @@
         <v>336</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2732,10 +2541,10 @@
         <v>337</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2743,10 +2552,10 @@
         <v>338</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2754,10 +2563,10 @@
         <v>339</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2776,10 +2585,10 @@
         <v>341</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2787,10 +2596,10 @@
         <v>342</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2798,10 +2607,10 @@
         <v>343</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2809,10 +2618,10 @@
         <v>344</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2820,10 +2629,10 @@
         <v>345</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2842,10 +2651,10 @@
         <v>347</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2853,10 +2662,10 @@
         <v>348</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2864,10 +2673,10 @@
         <v>349</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2875,10 +2684,10 @@
         <v>350</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2897,10 +2706,10 @@
         <v>352</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2908,10 +2717,10 @@
         <v>353</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2941,10 +2750,10 @@
         <v>356</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2963,10 +2772,10 @@
         <v>358</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2977,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2996,10 +2805,10 @@
         <v>361</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3018,10 +2827,10 @@
         <v>363</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3029,10 +2838,10 @@
         <v>364</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3062,10 +2871,10 @@
         <v>367</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3073,10 +2882,10 @@
         <v>368</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3084,655 +2893,9 @@
         <v>369</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>370</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>371</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>372</v>
-      </c>
-      <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>373</v>
-      </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>374</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>375</v>
-      </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>376</v>
-      </c>
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>377</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>378</v>
-      </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>379</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>380</v>
-      </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>381</v>
-      </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>382</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>383</v>
-      </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>384</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>385</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>386</v>
-      </c>
-      <c r="B145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>387</v>
-      </c>
-      <c r="B146" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>388</v>
-      </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>389</v>
-      </c>
-      <c r="C148" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>390</v>
-      </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>391</v>
-      </c>
-      <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>392</v>
-      </c>
-      <c r="B151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>393</v>
-      </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>394</v>
-      </c>
-      <c r="B153" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>395</v>
-      </c>
-      <c r="B154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>396</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>397</v>
-      </c>
-      <c r="B156" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>398</v>
-      </c>
-      <c r="B157" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>399</v>
-      </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>400</v>
-      </c>
-      <c r="B159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>401</v>
-      </c>
-      <c r="B160" t="s">
-        <v>107</v>
-      </c>
-      <c r="C160" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>402</v>
-      </c>
-      <c r="B161" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>403</v>
-      </c>
-      <c r="B162" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>404</v>
-      </c>
-      <c r="B163" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>405</v>
-      </c>
-      <c r="B164" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>406</v>
-      </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>407</v>
-      </c>
-      <c r="B166" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>408</v>
-      </c>
-      <c r="B167" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>409</v>
-      </c>
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>410</v>
-      </c>
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>411</v>
-      </c>
-      <c r="B170" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>412</v>
-      </c>
-      <c r="B171" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>413</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>414</v>
-      </c>
-      <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>415</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>416</v>
-      </c>
-      <c r="B175" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>417</v>
-      </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>418</v>
-      </c>
-      <c r="B177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>419</v>
-      </c>
-      <c r="B178" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>420</v>
-      </c>
-      <c r="B179" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>421</v>
-      </c>
-      <c r="B180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>422</v>
-      </c>
-      <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>423</v>
-      </c>
-      <c r="B182" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>424</v>
-      </c>
-      <c r="B183" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>425</v>
-      </c>
-      <c r="B184" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>426</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>427</v>
-      </c>
-      <c r="B186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>428</v>
-      </c>
-      <c r="B187" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" t="s">
         <v>30</v>
       </c>
     </row>
